--- a/planos/all_images/split/test/images/results_sensores/33_flip_sensors.xlsx
+++ b/planos/all_images/split/test/images/results_sensores/33_flip_sensors.xlsx
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.479474707045116</v>
+        <v>4.473858697868264</v>
       </c>
       <c r="F2" t="n">
-        <v>2.354281798596774</v>
+        <v>2.351330187291765</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.479474707045116</v>
+        <v>4.473858697868264</v>
       </c>
       <c r="F3" t="n">
-        <v>2.354281798596774</v>
+        <v>2.351330187291765</v>
       </c>
       <c r="G3" t="n">
         <v>0.6</v>
@@ -554,10 +554,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.479474707045116</v>
+        <v>4.473858697868264</v>
       </c>
       <c r="F4" t="n">
-        <v>2.354281798596774</v>
+        <v>2.351330187291765</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.479474707045116</v>
+        <v>4.473858697868264</v>
       </c>
       <c r="F5" t="n">
-        <v>2.354281798596774</v>
+        <v>2.351330187291765</v>
       </c>
       <c r="G5" t="n">
         <v>1.1</v>
@@ -616,10 +616,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7.524749174925265</v>
+        <v>7.515315242782856</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8590032473785081</v>
+        <v>0.8579262974154606</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7.524749174925265</v>
+        <v>7.515315242782856</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8590032473785081</v>
+        <v>0.8579262974154606</v>
       </c>
       <c r="G7" t="n">
         <v>0.6</v>
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.524749174925265</v>
+        <v>7.515315242782856</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8590032473785081</v>
+        <v>0.8579262974154606</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7.524749174925265</v>
+        <v>7.515315242782856</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8590032473785081</v>
+        <v>0.8579262974154606</v>
       </c>
       <c r="G9" t="n">
         <v>1.1</v>
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6.00211194098519</v>
+        <v>5.99458697032556</v>
       </c>
       <c r="F10" t="n">
-        <v>1.606642522987641</v>
+        <v>1.604628242353613</v>
       </c>
       <c r="G10" t="n">
         <v>0.1</v>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6.00211194098519</v>
+        <v>5.99458697032556</v>
       </c>
       <c r="F11" t="n">
-        <v>1.606642522987641</v>
+        <v>1.604628242353613</v>
       </c>
       <c r="G11" t="n">
         <v>1.1</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6.00211194098519</v>
+        <v>5.99458697032556</v>
       </c>
       <c r="F12" t="n">
-        <v>1.606642522987641</v>
+        <v>1.604628242353613</v>
       </c>
       <c r="G12" t="n">
         <v>1.7</v>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6.00211194098519</v>
+        <v>5.99458697032556</v>
       </c>
       <c r="F13" t="n">
-        <v>1.606642522987641</v>
+        <v>1.604628242353613</v>
       </c>
       <c r="G13" t="n">
         <v>1.1</v>
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.00211194098519</v>
+        <v>5.99458697032556</v>
       </c>
       <c r="F14" t="n">
-        <v>1.606642522987641</v>
+        <v>1.604628242353613</v>
       </c>
       <c r="G14" t="n">
         <v>1.1</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6.00211194098519</v>
+        <v>5.99458697032556</v>
       </c>
       <c r="F15" t="n">
-        <v>1.606642522987641</v>
+        <v>1.604628242353613</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>10.57002364280542</v>
+        <v>10.55677178769745</v>
       </c>
       <c r="F16" t="n">
-        <v>2.354281798596774</v>
+        <v>2.351330187291765</v>
       </c>
       <c r="G16" t="n">
         <v>0.1</v>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.57002364280542</v>
+        <v>10.55677178769745</v>
       </c>
       <c r="F17" t="n">
-        <v>2.354281798596774</v>
+        <v>2.351330187291765</v>
       </c>
       <c r="G17" t="n">
         <v>0.6</v>
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>10.57002364280542</v>
+        <v>10.55677178769745</v>
       </c>
       <c r="F18" t="n">
-        <v>2.354281798596774</v>
+        <v>2.351330187291765</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10.57002364280542</v>
+        <v>10.55677178769745</v>
       </c>
       <c r="F19" t="n">
-        <v>2.354281798596774</v>
+        <v>2.351330187291765</v>
       </c>
       <c r="G19" t="n">
         <v>1.1</v>
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>13.61529811068557</v>
+        <v>13.59822833261205</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8590032473785081</v>
+        <v>0.8579262974154606</v>
       </c>
       <c r="G20" t="n">
         <v>0.1</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13.61529811068557</v>
+        <v>13.59822833261205</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8590032473785081</v>
+        <v>0.8579262974154606</v>
       </c>
       <c r="G21" t="n">
         <v>0.6</v>
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>13.61529811068557</v>
+        <v>13.59822833261205</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8590032473785081</v>
+        <v>0.8579262974154606</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>13.61529811068557</v>
+        <v>13.59822833261205</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8590032473785081</v>
+        <v>0.8579262974154606</v>
       </c>
       <c r="G23" t="n">
         <v>1.1</v>
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>12.09266087674549</v>
+        <v>12.07750006015475</v>
       </c>
       <c r="F24" t="n">
-        <v>1.606642522987641</v>
+        <v>1.604628242353613</v>
       </c>
       <c r="G24" t="n">
         <v>0.1</v>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>12.09266087674549</v>
+        <v>12.07750006015475</v>
       </c>
       <c r="F25" t="n">
-        <v>1.606642522987641</v>
+        <v>1.604628242353613</v>
       </c>
       <c r="G25" t="n">
         <v>1.1</v>
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>12.09266087674549</v>
+        <v>12.07750006015475</v>
       </c>
       <c r="F26" t="n">
-        <v>1.606642522987641</v>
+        <v>1.604628242353613</v>
       </c>
       <c r="G26" t="n">
         <v>1.7</v>
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>12.09266087674549</v>
+        <v>12.07750006015475</v>
       </c>
       <c r="F27" t="n">
-        <v>1.606642522987641</v>
+        <v>1.604628242353613</v>
       </c>
       <c r="G27" t="n">
         <v>1.1</v>
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>12.09266087674549</v>
+        <v>12.07750006015475</v>
       </c>
       <c r="F28" t="n">
-        <v>1.606642522987641</v>
+        <v>1.604628242353613</v>
       </c>
       <c r="G28" t="n">
         <v>1.1</v>
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>12.09266087674549</v>
+        <v>12.07750006015475</v>
       </c>
       <c r="F29" t="n">
-        <v>1.606642522987641</v>
+        <v>1.604628242353613</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>16.66057257856572</v>
+        <v>16.63968487752664</v>
       </c>
       <c r="F30" t="n">
-        <v>2.354281798596774</v>
+        <v>2.351330187291765</v>
       </c>
       <c r="G30" t="n">
         <v>0.1</v>
@@ -1391,10 +1391,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>16.66057257856572</v>
+        <v>16.63968487752664</v>
       </c>
       <c r="F31" t="n">
-        <v>2.354281798596774</v>
+        <v>2.351330187291765</v>
       </c>
       <c r="G31" t="n">
         <v>0.6</v>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>16.66057257856572</v>
+        <v>16.63968487752664</v>
       </c>
       <c r="F32" t="n">
-        <v>2.354281798596774</v>
+        <v>2.351330187291765</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>16.66057257856572</v>
+        <v>16.63968487752664</v>
       </c>
       <c r="F33" t="n">
-        <v>2.354281798596774</v>
+        <v>2.351330187291765</v>
       </c>
       <c r="G33" t="n">
         <v>1.1</v>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>19.70584704644586</v>
+        <v>19.68114142244124</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8590032473785081</v>
+        <v>0.8579262974154606</v>
       </c>
       <c r="G34" t="n">
         <v>0.1</v>
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>19.70584704644586</v>
+        <v>19.68114142244124</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8590032473785081</v>
+        <v>0.8579262974154606</v>
       </c>
       <c r="G35" t="n">
         <v>0.6</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>19.70584704644586</v>
+        <v>19.68114142244124</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8590032473785081</v>
+        <v>0.8579262974154606</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>19.70584704644586</v>
+        <v>19.68114142244124</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8590032473785081</v>
+        <v>0.8579262974154606</v>
       </c>
       <c r="G37" t="n">
         <v>1.1</v>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>18.1832098125058</v>
+        <v>18.16041314998394</v>
       </c>
       <c r="F38" t="n">
-        <v>1.606642522987641</v>
+        <v>1.604628242353613</v>
       </c>
       <c r="G38" t="n">
         <v>0.1</v>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>18.1832098125058</v>
+        <v>18.16041314998394</v>
       </c>
       <c r="F39" t="n">
-        <v>1.606642522987641</v>
+        <v>1.604628242353613</v>
       </c>
       <c r="G39" t="n">
         <v>1.1</v>
@@ -1670,10 +1670,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>18.1832098125058</v>
+        <v>18.16041314998394</v>
       </c>
       <c r="F40" t="n">
-        <v>1.606642522987641</v>
+        <v>1.604628242353613</v>
       </c>
       <c r="G40" t="n">
         <v>1.7</v>
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>18.1832098125058</v>
+        <v>18.16041314998394</v>
       </c>
       <c r="F41" t="n">
-        <v>1.606642522987641</v>
+        <v>1.604628242353613</v>
       </c>
       <c r="G41" t="n">
         <v>1.1</v>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>18.1832098125058</v>
+        <v>18.16041314998394</v>
       </c>
       <c r="F42" t="n">
-        <v>1.606642522987641</v>
+        <v>1.604628242353613</v>
       </c>
       <c r="G42" t="n">
         <v>1.1</v>
@@ -1763,10 +1763,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>18.1832098125058</v>
+        <v>18.16041314998394</v>
       </c>
       <c r="F43" t="n">
-        <v>1.606642522987641</v>
+        <v>1.604628242353613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>23.96173778631069</v>
+        <v>23.93169646492771</v>
       </c>
       <c r="F44" t="n">
-        <v>2.448841977175132</v>
+        <v>2.44577181383771</v>
       </c>
       <c r="G44" t="n">
         <v>1.1</v>
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>23.96173778631069</v>
+        <v>23.93169646492771</v>
       </c>
       <c r="F45" t="n">
-        <v>2.448841977175132</v>
+        <v>2.44577181383771</v>
       </c>
       <c r="G45" t="n">
         <v>1.1</v>
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>22.45826872748721</v>
+        <v>22.43011233605331</v>
       </c>
       <c r="F46" t="n">
-        <v>2.423445575297877</v>
+        <v>2.42040725194959</v>
       </c>
       <c r="G46" t="n">
         <v>1.1</v>
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>22.45826872748721</v>
+        <v>22.43011233605331</v>
       </c>
       <c r="F47" t="n">
-        <v>2.423445575297877</v>
+        <v>2.42040725194959</v>
       </c>
       <c r="G47" t="n">
         <v>1.1</v>
@@ -1918,10 +1918,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>26.67924893475997</v>
+        <v>26.64580061399738</v>
       </c>
       <c r="F48" t="n">
-        <v>1.58631041073366</v>
+        <v>1.584321620885152</v>
       </c>
       <c r="G48" t="n">
         <v>0.1</v>
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>26.67924893475997</v>
+        <v>26.64580061399738</v>
       </c>
       <c r="F49" t="n">
-        <v>1.58631041073366</v>
+        <v>1.584321620885152</v>
       </c>
       <c r="G49" t="n">
         <v>1.1</v>
@@ -1980,10 +1980,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26.67924893475997</v>
+        <v>26.64580061399738</v>
       </c>
       <c r="F50" t="n">
-        <v>1.58631041073366</v>
+        <v>1.584321620885152</v>
       </c>
       <c r="G50" t="n">
         <v>1.7</v>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.67924893475997</v>
+        <v>26.64580061399738</v>
       </c>
       <c r="F51" t="n">
-        <v>1.58631041073366</v>
+        <v>1.584321620885152</v>
       </c>
       <c r="G51" t="n">
         <v>1.1</v>
@@ -2042,10 +2042,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.49613431764215</v>
+        <v>25.46416929190443</v>
       </c>
       <c r="F52" t="n">
-        <v>1.616937938967467</v>
+        <v>1.614910750759581</v>
       </c>
       <c r="G52" t="n">
         <v>0.1</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.49613431764215</v>
+        <v>25.46416929190443</v>
       </c>
       <c r="F53" t="n">
-        <v>1.616937938967467</v>
+        <v>1.614910750759581</v>
       </c>
       <c r="G53" t="n">
         <v>1.7</v>
@@ -2104,10 +2104,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>23.23972009693802</v>
+        <v>23.21058398391865</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7631861717685084</v>
+        <v>0.7622293496354224</v>
       </c>
       <c r="G54" t="n">
         <v>0.1</v>
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>23.23972009693802</v>
+        <v>23.21058398391865</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7631861717685084</v>
+        <v>0.7622293496354224</v>
       </c>
       <c r="G55" t="n">
         <v>1.1</v>
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>23.23972009693802</v>
+        <v>23.21058398391865</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7631861717685084</v>
+        <v>0.7622293496354224</v>
       </c>
       <c r="G56" t="n">
         <v>1.7</v>
@@ -2197,10 +2197,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>23.23972009693802</v>
+        <v>23.21058398391865</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7631861717685084</v>
+        <v>0.7622293496354224</v>
       </c>
       <c r="G57" t="n">
         <v>1.1</v>
@@ -2228,10 +2228,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>25.52604758822698</v>
+        <v>25.49404505960932</v>
       </c>
       <c r="F58" t="n">
-        <v>1.610523964725802</v>
+        <v>1.608504817848777</v>
       </c>
       <c r="G58" t="n">
         <v>0.1</v>
@@ -2259,10 +2259,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>25.52604758822698</v>
+        <v>25.49404505960932</v>
       </c>
       <c r="F59" t="n">
-        <v>1.610523964725802</v>
+        <v>1.608504817848777</v>
       </c>
       <c r="G59" t="n">
         <v>1.1</v>
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>25.52604758822698</v>
+        <v>25.49404505960932</v>
       </c>
       <c r="F60" t="n">
-        <v>1.610523964725802</v>
+        <v>1.608504817848777</v>
       </c>
       <c r="G60" t="n">
         <v>1.7</v>
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25.52604758822698</v>
+        <v>25.49404505960932</v>
       </c>
       <c r="F61" t="n">
-        <v>1.610523964725802</v>
+        <v>1.608504817848777</v>
       </c>
       <c r="G61" t="n">
         <v>1.1</v>
@@ -2352,10 +2352,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.8720249771798456</v>
+        <v>0.8709317016074698</v>
       </c>
       <c r="F62" t="n">
-        <v>1.612141932115906</v>
+        <v>1.610120756760029</v>
       </c>
       <c r="G62" t="n">
         <v>0.1</v>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.8720249771798456</v>
+        <v>0.8709317016074698</v>
       </c>
       <c r="F63" t="n">
-        <v>1.612141932115906</v>
+        <v>1.610120756760029</v>
       </c>
       <c r="G63" t="n">
         <v>1.1</v>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.8720249771798456</v>
+        <v>0.8709317016074698</v>
       </c>
       <c r="F64" t="n">
-        <v>1.612141932115906</v>
+        <v>1.610120756760029</v>
       </c>
       <c r="G64" t="n">
         <v>1.7</v>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.8720249771798456</v>
+        <v>0.8709317016074698</v>
       </c>
       <c r="F65" t="n">
-        <v>1.612141932115906</v>
+        <v>1.610120756760029</v>
       </c>
       <c r="G65" t="n">
         <v>1.1</v>
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.8685491903648107</v>
+        <v>0.8674602724575466</v>
       </c>
       <c r="F66" t="n">
-        <v>1.605919348425738</v>
+        <v>1.603905974450468</v>
       </c>
       <c r="G66" t="n">
         <v>0.1</v>
@@ -2507,10 +2507,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.8685491903648107</v>
+        <v>0.8674602724575466</v>
       </c>
       <c r="F67" t="n">
-        <v>1.605919348425738</v>
+        <v>1.603905974450468</v>
       </c>
       <c r="G67" t="n">
         <v>1.7</v>
